--- a/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3249,17 +3249,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.16015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3268,26 +3268,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20323" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20323" uniqueCount="935">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1072,10 +1072,6 @@
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
   </si>
   <si>
@@ -1195,10 +1191,6 @@
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1314,10 +1306,6 @@
     <t>The CH Core Practitioner is based upon the core FHIR Practitioner Resource and designed to meet the applicable practitioner demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -1542,10 +1530,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -2114,10 +2098,6 @@
     <t>Sets minimum expectations for questionnaire support for SDC-conformant systems, regardless of which SDC capabilities they're making use of.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}que-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}que-2:The link ids for groups and questions must be unique within the questionnaire {descendants().linkId.isDistinct()}</t>
-  </si>
-  <si>
     <t>Observation[moodCode=DEF]</t>
   </si>
   <si>
@@ -2351,10 +2331,6 @@
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
   </si>
   <si>
     <t>ORC</t>
@@ -2708,10 +2684,6 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
-    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Act[@moodCode &lt;= 'INT']</t>
   </si>
   <si>
@@ -2821,7 +2793,7 @@
     <t>CH ORF Coverage</t>
   </si>
   <si>
-    <t>Financial instrument which may be used to reimburse or pay for health care products and services. Includes both insurance and self-payment.</t>
+    <t>This is basic constraint on Coverage for use in CH Core resources.</t>
   </si>
   <si>
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
@@ -3249,17 +3221,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.16015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3268,26 +3240,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10429,16 +10401,16 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -10446,7 +10418,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>254</v>
@@ -10558,7 +10530,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>258</v>
@@ -10670,7 +10642,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>259</v>
@@ -10784,7 +10756,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>260</v>
@@ -10900,7 +10872,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>261</v>
@@ -11014,7 +10986,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>267</v>
@@ -11128,7 +11100,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>272</v>
@@ -11240,7 +11212,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>276</v>
@@ -11352,7 +11324,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>277</v>
@@ -11466,7 +11438,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>278</v>
@@ -11582,7 +11554,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>279</v>
@@ -11694,7 +11666,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -11808,7 +11780,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>288</v>
@@ -11920,7 +11892,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>291</v>
@@ -12032,7 +12004,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>293</v>
@@ -12144,7 +12116,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>296</v>
@@ -12256,7 +12228,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>299</v>
@@ -12368,7 +12340,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>303</v>
@@ -12480,7 +12452,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>304</v>
@@ -12594,7 +12566,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>305</v>
@@ -12710,7 +12682,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>306</v>
@@ -12822,7 +12794,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>309</v>
@@ -12934,7 +12906,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>312</v>
@@ -13048,7 +13020,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>316</v>
@@ -13162,7 +13134,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>320</v>
@@ -13276,13 +13248,13 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>78</v>
@@ -13390,7 +13362,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>239</v>
@@ -13502,7 +13474,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>240</v>
@@ -13616,7 +13588,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>241</v>
@@ -13732,7 +13704,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>242</v>
@@ -13844,7 +13816,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>245</v>
@@ -13958,14 +13930,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13984,13 +13956,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14053,16 +14025,16 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -14070,7 +14042,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>254</v>
@@ -14182,7 +14154,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>258</v>
@@ -14294,7 +14266,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>259</v>
@@ -14408,7 +14380,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>260</v>
@@ -14524,7 +14496,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>261</v>
@@ -14638,7 +14610,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>267</v>
@@ -14752,7 +14724,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>272</v>
@@ -14864,7 +14836,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>276</v>
@@ -14976,7 +14948,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>277</v>
@@ -15090,7 +15062,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>278</v>
@@ -15206,7 +15178,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>279</v>
@@ -15318,7 +15290,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>284</v>
@@ -15432,7 +15404,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>288</v>
@@ -15544,7 +15516,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>291</v>
@@ -15656,7 +15628,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>293</v>
@@ -15768,7 +15740,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>296</v>
@@ -15880,7 +15852,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>299</v>
@@ -15992,7 +15964,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>303</v>
@@ -16104,7 +16076,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>304</v>
@@ -16218,7 +16190,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>305</v>
@@ -16334,7 +16306,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>306</v>
@@ -16446,7 +16418,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>309</v>
@@ -16558,7 +16530,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>312</v>
@@ -16672,7 +16644,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>316</v>
@@ -16786,7 +16758,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>320</v>
@@ -16900,13 +16872,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>78</v>
@@ -17014,7 +16986,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>239</v>
@@ -17126,7 +17098,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>240</v>
@@ -17240,7 +17212,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>241</v>
@@ -17356,7 +17328,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>242</v>
@@ -17468,7 +17440,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>245</v>
@@ -17582,7 +17554,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>250</v>
@@ -17608,13 +17580,13 @@
         <v>78</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17677,13 +17649,13 @@
         <v>78</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>78</v>
@@ -17694,7 +17666,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>254</v>
@@ -17806,7 +17778,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>258</v>
@@ -17918,7 +17890,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>259</v>
@@ -18032,7 +18004,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>260</v>
@@ -18148,7 +18120,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>261</v>
@@ -18262,7 +18234,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>267</v>
@@ -18376,7 +18348,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>272</v>
@@ -18488,7 +18460,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>276</v>
@@ -18600,7 +18572,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>277</v>
@@ -18714,7 +18686,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>278</v>
@@ -18830,7 +18802,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>279</v>
@@ -18942,7 +18914,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -19056,7 +19028,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>288</v>
@@ -19168,7 +19140,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -19280,7 +19252,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>293</v>
@@ -19392,7 +19364,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>296</v>
@@ -19504,7 +19476,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>299</v>
@@ -19616,7 +19588,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>303</v>
@@ -19728,7 +19700,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>304</v>
@@ -19842,7 +19814,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>305</v>
@@ -19958,7 +19930,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>306</v>
@@ -20070,7 +20042,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>309</v>
@@ -20182,7 +20154,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>312</v>
@@ -20296,7 +20268,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>316</v>
@@ -20410,7 +20382,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>320</v>
@@ -20524,13 +20496,13 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>78</v>
@@ -20638,7 +20610,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>239</v>
@@ -20750,7 +20722,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>240</v>
@@ -20864,7 +20836,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>241</v>
@@ -20980,7 +20952,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>242</v>
@@ -21092,7 +21064,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>245</v>
@@ -21206,7 +21178,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>250</v>
@@ -21232,13 +21204,13 @@
         <v>78</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21301,13 +21273,13 @@
         <v>78</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>78</v>
@@ -21318,7 +21290,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>254</v>
@@ -21430,7 +21402,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>258</v>
@@ -21542,7 +21514,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>259</v>
@@ -21656,7 +21628,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>260</v>
@@ -21772,7 +21744,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>261</v>
@@ -21886,7 +21858,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>267</v>
@@ -22000,7 +21972,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>272</v>
@@ -22112,7 +22084,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>276</v>
@@ -22224,7 +22196,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>277</v>
@@ -22338,7 +22310,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>278</v>
@@ -22454,7 +22426,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>279</v>
@@ -22566,7 +22538,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -22680,7 +22652,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>288</v>
@@ -22792,7 +22764,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22904,7 +22876,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>293</v>
@@ -23016,7 +22988,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>296</v>
@@ -23128,7 +23100,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>299</v>
@@ -23240,7 +23212,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>303</v>
@@ -23352,7 +23324,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>304</v>
@@ -23466,7 +23438,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>305</v>
@@ -23582,7 +23554,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>306</v>
@@ -23694,7 +23666,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>309</v>
@@ -23806,7 +23778,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>312</v>
@@ -23920,7 +23892,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>316</v>
@@ -24034,7 +24006,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>320</v>
@@ -24148,13 +24120,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>78</v>
@@ -24262,7 +24234,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>239</v>
@@ -24374,7 +24346,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>240</v>
@@ -24488,7 +24460,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>241</v>
@@ -24604,7 +24576,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>242</v>
@@ -24716,7 +24688,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>245</v>
@@ -24830,7 +24802,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>250</v>
@@ -24856,13 +24828,13 @@
         <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -24925,13 +24897,13 @@
         <v>78</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>78</v>
@@ -24942,7 +24914,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>254</v>
@@ -25054,7 +25026,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>258</v>
@@ -25166,7 +25138,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>259</v>
@@ -25280,7 +25252,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>260</v>
@@ -25396,7 +25368,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>261</v>
@@ -25510,7 +25482,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>267</v>
@@ -25624,7 +25596,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>272</v>
@@ -25736,7 +25708,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>276</v>
@@ -25848,7 +25820,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>277</v>
@@ -25962,7 +25934,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>278</v>
@@ -26078,7 +26050,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>279</v>
@@ -26190,7 +26162,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -26304,7 +26276,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>288</v>
@@ -26416,7 +26388,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -26528,7 +26500,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>293</v>
@@ -26640,7 +26612,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>296</v>
@@ -26752,7 +26724,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>299</v>
@@ -26864,7 +26836,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>303</v>
@@ -26976,7 +26948,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>304</v>
@@ -27090,7 +27062,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>305</v>
@@ -27206,7 +27178,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>306</v>
@@ -27318,7 +27290,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>309</v>
@@ -27430,7 +27402,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>312</v>
@@ -27544,7 +27516,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>316</v>
@@ -27658,7 +27630,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>320</v>
@@ -27772,13 +27744,13 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>78</v>
@@ -27886,7 +27858,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>239</v>
@@ -27998,7 +27970,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>240</v>
@@ -28112,7 +28084,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>241</v>
@@ -28228,7 +28200,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>242</v>
@@ -28340,7 +28312,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>245</v>
@@ -28454,7 +28426,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>250</v>
@@ -28480,13 +28452,13 @@
         <v>78</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -28549,13 +28521,13 @@
         <v>78</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>78</v>
@@ -28566,7 +28538,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>254</v>
@@ -28678,7 +28650,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>258</v>
@@ -28790,7 +28762,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>259</v>
@@ -28904,7 +28876,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>260</v>
@@ -29020,7 +28992,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>261</v>
@@ -29134,7 +29106,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>267</v>
@@ -29248,7 +29220,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>272</v>
@@ -29360,7 +29332,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>276</v>
@@ -29472,7 +29444,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>277</v>
@@ -29586,7 +29558,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>278</v>
@@ -29702,7 +29674,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>279</v>
@@ -29814,7 +29786,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29928,7 +29900,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>288</v>
@@ -30040,7 +30012,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -30152,7 +30124,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>293</v>
@@ -30264,7 +30236,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>296</v>
@@ -30376,7 +30348,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>299</v>
@@ -30488,7 +30460,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>303</v>
@@ -30600,7 +30572,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>304</v>
@@ -30714,7 +30686,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>305</v>
@@ -30830,7 +30802,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>306</v>
@@ -30942,7 +30914,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>309</v>
@@ -31054,7 +31026,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>312</v>
@@ -31168,7 +31140,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>316</v>
@@ -31282,7 +31254,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>320</v>
@@ -31396,13 +31368,13 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D249" t="s" s="2">
         <v>78</v>
@@ -31510,7 +31482,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>239</v>
@@ -31622,7 +31594,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>240</v>
@@ -31736,7 +31708,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>241</v>
@@ -31852,7 +31824,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>242</v>
@@ -31964,7 +31936,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>245</v>
@@ -32078,7 +32050,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>250</v>
@@ -32104,13 +32076,13 @@
         <v>78</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -32173,13 +32145,13 @@
         <v>78</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK255" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>78</v>
@@ -32190,7 +32162,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>254</v>
@@ -32302,7 +32274,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>258</v>
@@ -32414,7 +32386,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>259</v>
@@ -32528,7 +32500,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>260</v>
@@ -32644,7 +32616,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>261</v>
@@ -32758,7 +32730,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>267</v>
@@ -32872,7 +32844,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>272</v>
@@ -32984,7 +32956,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>276</v>
@@ -33096,7 +33068,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>277</v>
@@ -33210,7 +33182,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>278</v>
@@ -33326,7 +33298,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>279</v>
@@ -33438,7 +33410,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -33552,7 +33524,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>288</v>
@@ -33664,7 +33636,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -33776,7 +33748,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>293</v>
@@ -33888,7 +33860,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>296</v>
@@ -34000,7 +33972,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>299</v>
@@ -34112,7 +34084,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>303</v>
@@ -34224,7 +34196,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>304</v>
@@ -34338,7 +34310,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>305</v>
@@ -34454,7 +34426,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>306</v>
@@ -34566,7 +34538,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>309</v>
@@ -34678,7 +34650,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>312</v>
@@ -34792,7 +34764,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>316</v>
@@ -34906,7 +34878,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>320</v>
@@ -35020,13 +34992,13 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>78</v>
@@ -35134,7 +35106,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>239</v>
@@ -35246,7 +35218,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>240</v>
@@ -35360,7 +35332,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>241</v>
@@ -35476,7 +35448,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>242</v>
@@ -35588,7 +35560,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>245</v>
@@ -35702,14 +35674,14 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -35728,13 +35700,13 @@
         <v>78</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -35797,13 +35769,13 @@
         <v>78</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK287" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>78</v>
@@ -35814,7 +35786,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>254</v>
@@ -35926,7 +35898,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>258</v>
@@ -36038,7 +36010,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>259</v>
@@ -36152,7 +36124,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>260</v>
@@ -36268,7 +36240,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>261</v>
@@ -36382,7 +36354,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>267</v>
@@ -36496,7 +36468,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>272</v>
@@ -36608,7 +36580,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>276</v>
@@ -36720,7 +36692,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>277</v>
@@ -36834,7 +36806,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>278</v>
@@ -36950,7 +36922,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>279</v>
@@ -37062,7 +37034,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -37176,7 +37148,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>288</v>
@@ -37288,7 +37260,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -37400,7 +37372,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>293</v>
@@ -37512,7 +37484,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>296</v>
@@ -37624,7 +37596,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>299</v>
@@ -37736,7 +37708,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>303</v>
@@ -37848,7 +37820,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>304</v>
@@ -37962,7 +37934,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>305</v>
@@ -38078,7 +38050,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>306</v>
@@ -38190,7 +38162,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>309</v>
@@ -38302,7 +38274,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>312</v>
@@ -38416,7 +38388,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>316</v>
@@ -38530,7 +38502,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>320</v>
@@ -38644,13 +38616,13 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>78</v>
@@ -38758,7 +38730,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>239</v>
@@ -38870,7 +38842,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>240</v>
@@ -38984,7 +38956,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>241</v>
@@ -39100,7 +39072,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>242</v>
@@ -39212,7 +39184,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>245</v>
@@ -39326,7 +39298,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>250</v>
@@ -39352,13 +39324,13 @@
         <v>78</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
@@ -39421,13 +39393,13 @@
         <v>78</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK319" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>78</v>
@@ -39438,7 +39410,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>254</v>
@@ -39550,7 +39522,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>258</v>
@@ -39662,7 +39634,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>259</v>
@@ -39776,7 +39748,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>260</v>
@@ -39892,7 +39864,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>261</v>
@@ -40006,7 +39978,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>267</v>
@@ -40120,7 +40092,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>272</v>
@@ -40232,7 +40204,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>276</v>
@@ -40344,7 +40316,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>277</v>
@@ -40458,7 +40430,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>278</v>
@@ -40574,7 +40546,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>279</v>
@@ -40686,7 +40658,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -40800,7 +40772,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>288</v>
@@ -40912,7 +40884,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -41024,7 +40996,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>293</v>
@@ -41136,7 +41108,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>296</v>
@@ -41248,7 +41220,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>299</v>
@@ -41360,7 +41332,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>303</v>
@@ -41472,7 +41444,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>304</v>
@@ -41586,7 +41558,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>305</v>
@@ -41702,7 +41674,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>306</v>
@@ -41814,7 +41786,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>309</v>
@@ -41926,7 +41898,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>312</v>
@@ -42040,7 +42012,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>316</v>
@@ -42154,7 +42126,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>320</v>
@@ -42268,13 +42240,13 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D345" t="s" s="2">
         <v>78</v>
@@ -42382,7 +42354,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>239</v>
@@ -42494,7 +42466,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>240</v>
@@ -42608,7 +42580,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>241</v>
@@ -42724,7 +42696,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>242</v>
@@ -42836,7 +42808,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>245</v>
@@ -42950,14 +42922,14 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" t="s" s="2">
@@ -42976,13 +42948,13 @@
         <v>78</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -43045,13 +43017,13 @@
         <v>78</v>
       </c>
       <c r="AJ351" t="s" s="2">
-        <v>678</v>
+        <v>78</v>
       </c>
       <c r="AK351" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL351" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AM351" t="s" s="2">
         <v>78</v>
@@ -43062,7 +43034,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>254</v>
@@ -43174,7 +43146,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>258</v>
@@ -43286,7 +43258,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>259</v>
@@ -43400,7 +43372,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>260</v>
@@ -43516,7 +43488,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>261</v>
@@ -43630,7 +43602,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>267</v>
@@ -43744,7 +43716,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>272</v>
@@ -43856,7 +43828,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>276</v>
@@ -43968,7 +43940,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>277</v>
@@ -44082,7 +44054,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>278</v>
@@ -44198,7 +44170,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>279</v>
@@ -44310,7 +44282,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>284</v>
@@ -44424,7 +44396,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>288</v>
@@ -44536,7 +44508,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>291</v>
@@ -44648,7 +44620,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>293</v>
@@ -44760,7 +44732,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>296</v>
@@ -44872,7 +44844,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>299</v>
@@ -44984,7 +44956,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>303</v>
@@ -45096,7 +45068,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>304</v>
@@ -45210,7 +45182,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>305</v>
@@ -45326,7 +45298,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>306</v>
@@ -45438,7 +45410,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>309</v>
@@ -45550,7 +45522,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>312</v>
@@ -45664,7 +45636,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>316</v>
@@ -45778,7 +45750,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>320</v>
@@ -45892,13 +45864,13 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D377" t="s" s="2">
         <v>78</v>
@@ -46006,7 +45978,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>239</v>
@@ -46118,7 +46090,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>240</v>
@@ -46232,7 +46204,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>241</v>
@@ -46348,7 +46320,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>242</v>
@@ -46460,7 +46432,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>245</v>
@@ -46574,14 +46546,14 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" t="s" s="2">
@@ -46600,16 +46572,16 @@
         <v>78</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" t="s" s="2">
@@ -46671,13 +46643,13 @@
         <v>78</v>
       </c>
       <c r="AJ383" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK383" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL383" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="AM383" t="s" s="2">
         <v>78</v>
@@ -46688,7 +46660,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>254</v>
@@ -46800,7 +46772,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>258</v>
@@ -46912,7 +46884,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>259</v>
@@ -47026,7 +46998,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>260</v>
@@ -47142,7 +47114,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>261</v>
@@ -47256,7 +47228,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>267</v>
@@ -47370,7 +47342,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>272</v>
@@ -47482,7 +47454,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>276</v>
@@ -47594,7 +47566,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>277</v>
@@ -47708,7 +47680,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>278</v>
@@ -47824,7 +47796,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>279</v>
@@ -47936,7 +47908,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>284</v>
@@ -48050,7 +48022,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>288</v>
@@ -48162,7 +48134,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>291</v>
@@ -48274,7 +48246,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>293</v>
@@ -48386,7 +48358,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>296</v>
@@ -48498,7 +48470,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>299</v>
@@ -48610,7 +48582,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>303</v>
@@ -48722,7 +48694,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>304</v>
@@ -48836,7 +48808,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>305</v>
@@ -48952,7 +48924,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>306</v>
@@ -49064,7 +49036,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>309</v>
@@ -49176,7 +49148,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>312</v>
@@ -49290,7 +49262,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>316</v>
@@ -49404,7 +49376,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>320</v>
@@ -49518,13 +49490,13 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D409" t="s" s="2">
         <v>78</v>
@@ -49632,7 +49604,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>239</v>
@@ -49744,7 +49716,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>240</v>
@@ -49858,7 +49830,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>241</v>
@@ -49974,7 +49946,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>242</v>
@@ -50086,7 +50058,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>245</v>
@@ -50200,14 +50172,14 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E415" s="2"/>
       <c r="F415" t="s" s="2">
@@ -50226,13 +50198,13 @@
         <v>78</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
@@ -50295,13 +50267,13 @@
         <v>78</v>
       </c>
       <c r="AJ415" t="s" s="2">
-        <v>756</v>
+        <v>78</v>
       </c>
       <c r="AK415" t="s" s="2">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="AL415" t="s" s="2">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="AM415" t="s" s="2">
         <v>78</v>
@@ -50312,7 +50284,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>254</v>
@@ -50424,7 +50396,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>258</v>
@@ -50536,7 +50508,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>259</v>
@@ -50650,7 +50622,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>260</v>
@@ -50766,7 +50738,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>261</v>
@@ -50880,7 +50852,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>267</v>
@@ -50994,7 +50966,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>272</v>
@@ -51106,7 +51078,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>276</v>
@@ -51218,7 +51190,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>277</v>
@@ -51332,7 +51304,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>278</v>
@@ -51448,7 +51420,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>279</v>
@@ -51560,7 +51532,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>284</v>
@@ -51674,7 +51646,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>288</v>
@@ -51786,7 +51758,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>291</v>
@@ -51898,7 +51870,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>293</v>
@@ -52010,7 +51982,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>296</v>
@@ -52122,7 +52094,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>299</v>
@@ -52234,7 +52206,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>303</v>
@@ -52346,7 +52318,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>304</v>
@@ -52460,7 +52432,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>305</v>
@@ -52576,7 +52548,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>306</v>
@@ -52688,7 +52660,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>309</v>
@@ -52800,7 +52772,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>312</v>
@@ -52914,7 +52886,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>316</v>
@@ -53028,7 +53000,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>320</v>
@@ -53142,13 +53114,13 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D441" t="s" s="2">
         <v>78</v>
@@ -53256,7 +53228,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>239</v>
@@ -53368,7 +53340,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>240</v>
@@ -53482,7 +53454,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>241</v>
@@ -53598,7 +53570,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>242</v>
@@ -53710,7 +53682,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>245</v>
@@ -53824,7 +53796,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>250</v>
@@ -53850,16 +53822,16 @@
         <v>78</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="O447" s="2"/>
       <c r="P447" t="s" s="2">
@@ -53921,16 +53893,16 @@
         <v>78</v>
       </c>
       <c r="AJ447" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK447" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL447" t="s" s="2">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="AM447" t="s" s="2">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="AN447" t="s" s="2">
         <v>78</v>
@@ -53938,7 +53910,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>254</v>
@@ -54050,7 +54022,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>258</v>
@@ -54162,7 +54134,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>259</v>
@@ -54276,7 +54248,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>260</v>
@@ -54392,7 +54364,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>261</v>
@@ -54506,7 +54478,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>267</v>
@@ -54620,7 +54592,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>272</v>
@@ -54732,7 +54704,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>276</v>
@@ -54844,7 +54816,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>277</v>
@@ -54958,7 +54930,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>278</v>
@@ -55074,7 +55046,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>279</v>
@@ -55186,7 +55158,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>284</v>
@@ -55300,7 +55272,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>288</v>
@@ -55412,7 +55384,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>291</v>
@@ -55524,7 +55496,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>293</v>
@@ -55636,7 +55608,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>296</v>
@@ -55748,7 +55720,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>299</v>
@@ -55860,7 +55832,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>303</v>
@@ -55972,7 +55944,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>304</v>
@@ -56086,7 +56058,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>305</v>
@@ -56202,7 +56174,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>306</v>
@@ -56314,7 +56286,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>309</v>
@@ -56426,7 +56398,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>312</v>
@@ -56540,7 +56512,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>316</v>
@@ -56654,7 +56626,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>320</v>
@@ -56768,13 +56740,13 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D473" t="s" s="2">
         <v>78</v>
@@ -56882,7 +56854,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>239</v>
@@ -56994,7 +56966,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>240</v>
@@ -57108,7 +57080,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>241</v>
@@ -57224,7 +57196,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>242</v>
@@ -57336,7 +57308,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>245</v>
@@ -57450,7 +57422,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>250</v>
@@ -57476,16 +57448,16 @@
         <v>78</v>
       </c>
       <c r="K479" t="s" s="2">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="L479" t="s" s="2">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="O479" s="2"/>
       <c r="P479" t="s" s="2">
@@ -57553,7 +57525,7 @@
         <v>78</v>
       </c>
       <c r="AL479" t="s" s="2">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AM479" t="s" s="2">
         <v>78</v>
@@ -57564,7 +57536,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>254</v>
@@ -57676,7 +57648,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>258</v>
@@ -57788,7 +57760,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>259</v>
@@ -57902,7 +57874,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>260</v>
@@ -58018,7 +57990,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>261</v>
@@ -58132,7 +58104,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>267</v>
@@ -58246,7 +58218,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>272</v>
@@ -58358,7 +58330,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>276</v>
@@ -58470,7 +58442,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>277</v>
@@ -58584,7 +58556,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>278</v>
@@ -58700,7 +58672,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>279</v>
@@ -58812,7 +58784,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>284</v>
@@ -58926,7 +58898,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>288</v>
@@ -59038,7 +59010,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>291</v>
@@ -59150,7 +59122,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>293</v>
@@ -59262,7 +59234,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>296</v>
@@ -59374,7 +59346,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>299</v>
@@ -59486,7 +59458,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>303</v>
@@ -59598,7 +59570,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>304</v>
@@ -59712,7 +59684,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>305</v>
@@ -59828,7 +59800,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>306</v>
@@ -59940,7 +59912,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>309</v>
@@ -60052,7 +60024,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>312</v>
@@ -60166,7 +60138,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>316</v>
@@ -60280,7 +60252,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>320</v>
@@ -60394,13 +60366,13 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D505" t="s" s="2">
         <v>78</v>
@@ -60508,7 +60480,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>239</v>
@@ -60620,7 +60592,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>240</v>
@@ -60734,7 +60706,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>241</v>
@@ -60850,7 +60822,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>242</v>
@@ -60962,7 +60934,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>245</v>
@@ -61076,7 +61048,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>250</v>
@@ -61102,13 +61074,13 @@
         <v>78</v>
       </c>
       <c r="K511" t="s" s="2">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="L511" t="s" s="2">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="M511" t="s" s="2">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
@@ -61171,13 +61143,13 @@
         <v>78</v>
       </c>
       <c r="AJ511" t="s" s="2">
-        <v>872</v>
+        <v>78</v>
       </c>
       <c r="AK511" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL511" t="s" s="2">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="AM511" t="s" s="2">
         <v>78</v>
@@ -61188,7 +61160,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>254</v>
@@ -61300,7 +61272,7 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>258</v>
@@ -61412,7 +61384,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>259</v>
@@ -61526,7 +61498,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>260</v>
@@ -61642,7 +61614,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>261</v>
@@ -61756,7 +61728,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>267</v>
@@ -61870,7 +61842,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>272</v>
@@ -61982,7 +61954,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>276</v>
@@ -62094,7 +62066,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>277</v>
@@ -62208,7 +62180,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>278</v>
@@ -62324,7 +62296,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>279</v>
@@ -62436,7 +62408,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>284</v>
@@ -62550,7 +62522,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>288</v>
@@ -62662,7 +62634,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>291</v>
@@ -62774,7 +62746,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>293</v>
@@ -62886,7 +62858,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>296</v>
@@ -62998,7 +62970,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>299</v>
@@ -63110,7 +63082,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>303</v>
@@ -63222,7 +63194,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>304</v>
@@ -63336,7 +63308,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>305</v>
@@ -63452,7 +63424,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>306</v>
@@ -63564,7 +63536,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>309</v>
@@ -63676,7 +63648,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>312</v>
@@ -63790,7 +63762,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>316</v>
@@ -63904,7 +63876,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>320</v>
@@ -64018,13 +63990,13 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="D537" t="s" s="2">
         <v>78</v>
@@ -64132,7 +64104,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>239</v>
@@ -64244,7 +64216,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>240</v>
@@ -64358,7 +64330,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>241</v>
@@ -64474,7 +64446,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>242</v>
@@ -64586,7 +64558,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>245</v>
@@ -64700,7 +64672,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>250</v>
@@ -64726,16 +64698,16 @@
         <v>78</v>
       </c>
       <c r="K543" t="s" s="2">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" t="s" s="2">
@@ -64797,13 +64769,13 @@
         <v>78</v>
       </c>
       <c r="AJ543" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AK543" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL543" t="s" s="2">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="AM543" t="s" s="2">
         <v>78</v>
@@ -64814,7 +64786,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>254</v>
@@ -64926,7 +64898,7 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>258</v>
@@ -65038,7 +65010,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>259</v>
@@ -65152,7 +65124,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>260</v>
@@ -65268,7 +65240,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>261</v>
@@ -65382,7 +65354,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>267</v>
@@ -65496,7 +65468,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>272</v>
@@ -65608,7 +65580,7 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>276</v>
@@ -65720,7 +65692,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>277</v>
@@ -65834,7 +65806,7 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>278</v>
@@ -65950,7 +65922,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>279</v>
@@ -66062,7 +66034,7 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>284</v>
@@ -66176,7 +66148,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>288</v>
@@ -66288,7 +66260,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>291</v>
@@ -66400,7 +66372,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>293</v>
@@ -66512,7 +66484,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>296</v>
@@ -66624,7 +66596,7 @@
     </row>
     <row r="560" hidden="true">
       <c r="A560" t="s" s="2">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>299</v>
@@ -66736,7 +66708,7 @@
     </row>
     <row r="561" hidden="true">
       <c r="A561" t="s" s="2">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>303</v>
@@ -66848,7 +66820,7 @@
     </row>
     <row r="562" hidden="true">
       <c r="A562" t="s" s="2">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>304</v>
@@ -66962,7 +66934,7 @@
     </row>
     <row r="563" hidden="true">
       <c r="A563" t="s" s="2">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>305</v>
@@ -67078,7 +67050,7 @@
     </row>
     <row r="564" hidden="true">
       <c r="A564" t="s" s="2">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>306</v>
@@ -67190,7 +67162,7 @@
     </row>
     <row r="565" hidden="true">
       <c r="A565" t="s" s="2">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>309</v>
@@ -67302,7 +67274,7 @@
     </row>
     <row r="566" hidden="true">
       <c r="A566" t="s" s="2">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>312</v>
@@ -67416,7 +67388,7 @@
     </row>
     <row r="567" hidden="true">
       <c r="A567" t="s" s="2">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>316</v>
@@ -67530,7 +67502,7 @@
     </row>
     <row r="568" hidden="true">
       <c r="A568" t="s" s="2">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>320</v>
@@ -67644,10 +67616,10 @@
     </row>
     <row r="569" hidden="true">
       <c r="A569" t="s" s="2">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" t="s" s="2">
@@ -67670,19 +67642,19 @@
         <v>89</v>
       </c>
       <c r="K569" t="s" s="2">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="L569" t="s" s="2">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="O569" t="s" s="2">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="P569" t="s" s="2">
         <v>78</v>
@@ -67731,7 +67703,7 @@
         <v>78</v>
       </c>
       <c r="AF569" t="s" s="2">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="AG569" t="s" s="2">
         <v>79</v>

--- a/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1635,11 +1635,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -3221,17 +3221,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.7421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3240,26 +3240,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6019,7 +6019,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -10287,7 +10287,7 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -13827,7 +13827,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13913,7 +13913,7 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>88</v>
@@ -17537,7 +17537,7 @@
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>88</v>
@@ -21161,7 +21161,7 @@
         <v>78</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>78</v>
@@ -24699,7 +24699,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>88</v>
@@ -24785,7 +24785,7 @@
         <v>78</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>78</v>
@@ -28323,7 +28323,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>88</v>
@@ -28409,7 +28409,7 @@
         <v>78</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>78</v>
@@ -31947,7 +31947,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>88</v>
@@ -32033,7 +32033,7 @@
         <v>78</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>78</v>
@@ -35571,7 +35571,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>88</v>
@@ -35657,7 +35657,7 @@
         <v>78</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>78</v>
@@ -39195,7 +39195,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>88</v>
@@ -39281,7 +39281,7 @@
         <v>78</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK318" t="s" s="2">
         <v>78</v>

--- a/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-document.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -507,7 +507,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -595,7 +595,7 @@
     <t>Bundle.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3950,7 +3950,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>161</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>171</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>194</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>201</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>324</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>331</v>
       </c>
@@ -42238,7 +42238,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="345" hidden="true">
+    <row r="345">
       <c r="A345" t="s" s="2">
         <v>662</v>
       </c>
@@ -42920,7 +42920,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="351" hidden="true">
+    <row r="351">
       <c r="A351" t="s" s="2">
         <v>669</v>
       </c>
@@ -45862,7 +45862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="377" hidden="true">
+    <row r="377">
       <c r="A377" t="s" s="2">
         <v>700</v>
       </c>
@@ -46544,7 +46544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="383" hidden="true">
+    <row r="383">
       <c r="A383" t="s" s="2">
         <v>707</v>
       </c>
@@ -49488,7 +49488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="409" hidden="true">
+    <row r="409">
       <c r="A409" t="s" s="2">
         <v>739</v>
       </c>
@@ -50170,7 +50170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="415" hidden="true">
+    <row r="415">
       <c r="A415" t="s" s="2">
         <v>746</v>
       </c>
@@ -53112,7 +53112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="441" hidden="true">
+    <row r="441">
       <c r="A441" t="s" s="2">
         <v>778</v>
       </c>
@@ -53794,7 +53794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="447" hidden="true">
+    <row r="447">
       <c r="A447" t="s" s="2">
         <v>785</v>
       </c>
@@ -56738,7 +56738,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="473" hidden="true">
+    <row r="473">
       <c r="A473" t="s" s="2">
         <v>817</v>
       </c>
@@ -57420,7 +57420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="479" hidden="true">
+    <row r="479">
       <c r="A479" t="s" s="2">
         <v>824</v>
       </c>
@@ -60364,7 +60364,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="505" hidden="true">
+    <row r="505">
       <c r="A505" t="s" s="2">
         <v>855</v>
       </c>
@@ -61046,7 +61046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="511" hidden="true">
+    <row r="511">
       <c r="A511" t="s" s="2">
         <v>862</v>
       </c>
@@ -63988,7 +63988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="537" hidden="true">
+    <row r="537">
       <c r="A537" t="s" s="2">
         <v>892</v>
       </c>
@@ -64670,7 +64670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="543" hidden="true">
+    <row r="543">
       <c r="A543" t="s" s="2">
         <v>899</v>
       </c>
@@ -67732,12 +67732,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN569">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
